--- a/people.xlsx
+++ b/people.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">skjangid1785@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mutual funds</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -364,7 +361,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
